--- a/ArticleManage/main_working_folder/output_folders/Data 121 CO2 Adsorption on Biomass-Derived/Data121_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 121 CO2 Adsorption on Biomass-Derived/Data121_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="NDC-500" sheetId="1" r:id="rId1"/>
-    <sheet name="NDC-600" sheetId="2" r:id="rId4"/>
-    <sheet name="NDC-700" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 8 NDC-500  0-1-0-200 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 8 NDC-600  0-1-0-200 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 8 NDC-700  0-1-0-200 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NDC-500</a:t>
+              <a:t>Izoterma adsorpcji probki NDC-500 z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NDC-500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 8 NDC-500  0-1-0-200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NDC-500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 8 NDC-500  0-1-0-200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NDC-600</a:t>
+              <a:t>Izoterma adsorpcji probki NDC-600 z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NDC-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 8 NDC-600  0-1-0-200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NDC-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 8 NDC-600  0-1-0-200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki NDC-700</a:t>
+              <a:t>Izoterma adsorpcji probki NDC-700 z wykresu 'Figure 8' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NDC-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 8 NDC-700  0-1-0-200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'NDC-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 8 NDC-700  0-1-0-200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 121 CO2 Adsorption on Biomass-Derived/Data121_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 121 CO2 Adsorption on Biomass-Derived/Data121_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,293 +3120,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0182</v>
+        <v>0.952</v>
       </c>
       <c r="B3" s="0">
-        <v>6.1728</v>
+        <v>34.4781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0441</v>
+        <v>0.9007</v>
       </c>
       <c r="B4" s="0">
-        <v>6.9843</v>
+        <v>29.8021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0702</v>
+        <v>0.8504</v>
       </c>
       <c r="B5" s="0">
-        <v>7.7897</v>
+        <v>26.2585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0988</v>
+        <v>0.8002</v>
       </c>
       <c r="B6" s="0">
-        <v>8.5345</v>
+        <v>24.3331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1248</v>
+        <v>0.7513</v>
       </c>
       <c r="B7" s="0">
-        <v>9.0868</v>
+        <v>22.2453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1521</v>
+        <v>0.7006</v>
       </c>
       <c r="B8" s="0">
-        <v>9.4389</v>
+        <v>21.2909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1769</v>
+        <v>0.6493</v>
       </c>
       <c r="B9" s="0">
-        <v>9.9722</v>
+        <v>19.3657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2042</v>
+        <v>0.6005</v>
       </c>
       <c r="B10" s="0">
-        <v>10.3855</v>
+        <v>18.4106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.229</v>
+        <v>0.5014</v>
       </c>
       <c r="B11" s="0">
-        <v>10.8576</v>
+        <v>16.3392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2588</v>
+        <v>0.4496</v>
       </c>
       <c r="B12" s="0">
-        <v>11.457</v>
+        <v>15.2232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.281</v>
+        <v>0.3984</v>
       </c>
       <c r="B13" s="0">
-        <v>12.0524</v>
+        <v>14.9162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3171</v>
+        <v>0.3515</v>
       </c>
       <c r="B14" s="0">
-        <v>12.6595</v>
+        <v>13.1514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3371</v>
+        <v>0.2988</v>
       </c>
       <c r="B15" s="0">
-        <v>12.7303</v>
+        <v>13.0067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3692</v>
+        <v>0.2519</v>
       </c>
       <c r="B16" s="0">
-        <v>13.416</v>
+        <v>11.8892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3909</v>
+        <v>0.1987</v>
       </c>
       <c r="B17" s="0">
-        <v>14.1013</v>
+        <v>10.6119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4212</v>
+        <v>0.1484</v>
       </c>
       <c r="B18" s="0">
-        <v>15.1779</v>
+        <v>9.4955</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4473</v>
+        <v>0.0991</v>
       </c>
       <c r="B19" s="0">
-        <v>15.2296</v>
+        <v>8.8642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4733</v>
+        <v>0.0749</v>
       </c>
       <c r="B20" s="0">
-        <v>15.4704</v>
+        <v>8.0629</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4994</v>
+        <v>0.0498</v>
       </c>
       <c r="B21" s="0">
-        <v>16.1838</v>
+        <v>7.9093</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5254</v>
+        <v>0.0241</v>
       </c>
       <c r="B22" s="0">
-        <v>16.5621</v>
+        <v>6.7849</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5514</v>
+        <v>0.0241</v>
       </c>
       <c r="B23" s="0">
-        <v>17.1981</v>
+        <v>6.4612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5775</v>
+        <v>0.0092</v>
       </c>
       <c r="B24" s="0">
-        <v>17.7826</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.6035</v>
-      </c>
-      <c r="B25" s="0">
-        <v>18.2898</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6295</v>
-      </c>
-      <c r="B26" s="0">
-        <v>18.668</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6556</v>
-      </c>
-      <c r="B27" s="0">
-        <v>19.3041</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6816</v>
-      </c>
-      <c r="B28" s="0">
-        <v>20.198</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.7076</v>
-      </c>
-      <c r="B29" s="0">
-        <v>21.0402</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7337</v>
-      </c>
-      <c r="B30" s="0">
-        <v>21.3412</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7597</v>
-      </c>
-      <c r="B31" s="0">
-        <v>22.1577</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7858</v>
-      </c>
-      <c r="B32" s="0">
-        <v>23.696</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8118</v>
-      </c>
-      <c r="B33" s="0">
-        <v>25.1484</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8378</v>
-      </c>
-      <c r="B34" s="0">
-        <v>26.3173</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.8638</v>
-      </c>
-      <c r="B35" s="0">
-        <v>27.6923</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8899</v>
-      </c>
-      <c r="B36" s="0">
-        <v>29.3596</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9159</v>
-      </c>
-      <c r="B37" s="0">
-        <v>31.5939</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9369</v>
-      </c>
-      <c r="B38" s="0">
-        <v>33.1887</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>3.5535</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3415,7 +3303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3436,341 +3324,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0027</v>
+        <v>0.9474</v>
       </c>
       <c r="B3" s="0">
-        <v>6.3035</v>
+        <v>68.4602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0209</v>
+        <v>0.8996</v>
       </c>
       <c r="B4" s="0">
-        <v>14.7956</v>
+        <v>62.165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0407</v>
+        <v>0.8498</v>
       </c>
       <c r="B5" s="0">
-        <v>19.9119</v>
+        <v>58.2976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0617</v>
+        <v>0.799</v>
       </c>
       <c r="B6" s="0">
-        <v>22.8175</v>
+        <v>55.2396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0877</v>
+        <v>0.7526</v>
       </c>
       <c r="B7" s="0">
-        <v>24.6244</v>
+        <v>51.0475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1167</v>
+        <v>0.699</v>
       </c>
       <c r="B8" s="0">
-        <v>26.542</v>
+        <v>50.2558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1358</v>
+        <v>0.6511</v>
       </c>
       <c r="B9" s="0">
-        <v>27.6669</v>
+        <v>47.3587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1608</v>
+        <v>0.5989</v>
       </c>
       <c r="B10" s="0">
-        <v>29.7267</v>
+        <v>46.7283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1828</v>
+        <v>0.4993</v>
       </c>
       <c r="B11" s="0">
-        <v>30.9687</v>
+        <v>43.2007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2169</v>
+        <v>0.4485</v>
       </c>
       <c r="B12" s="0">
-        <v>32.9685</v>
+        <v>42.5698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2359</v>
+        <v>0.3987</v>
       </c>
       <c r="B13" s="0">
-        <v>33.7926</v>
+        <v>40.4824</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2649</v>
+        <v>0.3509</v>
       </c>
       <c r="B14" s="0">
-        <v>35.2379</v>
+        <v>38.8798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2839</v>
+        <v>0.2982</v>
       </c>
       <c r="B15" s="0">
-        <v>36.2067</v>
+        <v>37.2787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.315</v>
+        <v>0.2503</v>
       </c>
       <c r="B16" s="0">
-        <v>37.6591</v>
+        <v>34.867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.334</v>
+        <v>0.1986</v>
       </c>
       <c r="B17" s="0">
-        <v>38.4526</v>
+        <v>32.4566</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.365</v>
+        <v>0.1531</v>
       </c>
       <c r="B18" s="0">
-        <v>39.349</v>
+        <v>29.7205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3861</v>
+        <v>0.1004</v>
       </c>
       <c r="B19" s="0">
-        <v>39.525</v>
+        <v>26.0158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4171</v>
+        <v>0.0739</v>
       </c>
       <c r="B20" s="0">
-        <v>41.4445</v>
+        <v>23.5972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4391</v>
+        <v>0.0487</v>
       </c>
       <c r="B21" s="0">
-        <v>41.9451</v>
+        <v>22.7963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4612</v>
+        <v>0.0207</v>
       </c>
       <c r="B22" s="0">
-        <v>42.5778</v>
+        <v>15.0384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4832</v>
+        <v>0.0101</v>
       </c>
       <c r="B23" s="0">
-        <v>42.8753</v>
+        <v>10.8347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5052</v>
+        <v>0.0019</v>
       </c>
       <c r="B24" s="0">
-        <v>43.4166</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5273</v>
-      </c>
-      <c r="B25" s="0">
-        <v>44.0493</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5493</v>
-      </c>
-      <c r="B26" s="0">
-        <v>44.7733</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5713</v>
-      </c>
-      <c r="B27" s="0">
-        <v>45.4669</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5934</v>
-      </c>
-      <c r="B28" s="0">
-        <v>46.3128</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6154</v>
-      </c>
-      <c r="B29" s="0">
-        <v>46.7932</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6374</v>
-      </c>
-      <c r="B30" s="0">
-        <v>47.2126</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6594</v>
-      </c>
-      <c r="B31" s="0">
-        <v>47.9062</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6815</v>
-      </c>
-      <c r="B32" s="0">
-        <v>49.2396</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7035</v>
-      </c>
-      <c r="B33" s="0">
-        <v>50.2988</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7255</v>
-      </c>
-      <c r="B34" s="0">
-        <v>50.4744</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7476</v>
-      </c>
-      <c r="B35" s="0">
-        <v>50.8329</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7696</v>
-      </c>
-      <c r="B36" s="0">
-        <v>52.2882</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7916</v>
-      </c>
-      <c r="B37" s="0">
-        <v>54.3223</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8136</v>
-      </c>
-      <c r="B38" s="0">
-        <v>55.808</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8357</v>
-      </c>
-      <c r="B39" s="0">
-        <v>57.1719</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8577</v>
-      </c>
-      <c r="B40" s="0">
-        <v>58.7186</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8797</v>
-      </c>
-      <c r="B41" s="0">
-        <v>60.5902</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9017</v>
-      </c>
-      <c r="B42" s="0">
-        <v>62.5532</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9238</v>
-      </c>
-      <c r="B43" s="0">
-        <v>65.8873</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9388</v>
-      </c>
-      <c r="B44" s="0">
-        <v>67.3296</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>5.1739</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3779,7 +3507,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3800,413 +3528,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0004</v>
+        <v>0.9459</v>
       </c>
       <c r="B3" s="0">
-        <v>65.6225</v>
+        <v>192.7325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0004</v>
+        <v>0.8985</v>
       </c>
       <c r="B4" s="0">
-        <v>1.4927</v>
+        <v>181.2592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0026</v>
+        <v>0.8512</v>
       </c>
       <c r="B5" s="0">
-        <v>76.5295</v>
+        <v>174.3166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0001</v>
+        <v>0.7985</v>
       </c>
       <c r="B6" s="0">
-        <v>14.7385</v>
+        <v>168.1847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0004</v>
+        <v>0.7506</v>
       </c>
       <c r="B7" s="0">
-        <v>56.0712</v>
+        <v>165.4494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0005</v>
+        <v>0.7009</v>
       </c>
       <c r="B8" s="0">
-        <v>48.6983</v>
+        <v>161.0966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0005</v>
+        <v>0.6511</v>
       </c>
       <c r="B9" s="0">
-        <v>41.3254</v>
+        <v>157.2292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0005</v>
+        <v>0.6022</v>
       </c>
       <c r="B10" s="0">
-        <v>33.9525</v>
+        <v>153.3615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0006</v>
+        <v>0.5017</v>
       </c>
       <c r="B11" s="0">
-        <v>26.5796</v>
+        <v>145.9507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.009</v>
+        <v>0.4509</v>
       </c>
       <c r="B12" s="0">
-        <v>85.6494</v>
+        <v>141.9218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0245</v>
+        <v>0.4016</v>
       </c>
       <c r="B13" s="0">
-        <v>94.3801</v>
+        <v>138.0543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0456</v>
+        <v>0.3494</v>
       </c>
       <c r="B14" s="0">
-        <v>100.1822</v>
+        <v>133.3786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0654</v>
+        <v>0.303</v>
       </c>
       <c r="B15" s="0">
-        <v>103.7346</v>
+        <v>129.3483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0903</v>
+        <v>0.2542</v>
       </c>
       <c r="B16" s="0">
-        <v>107.4289</v>
+        <v>125.157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1123</v>
+        <v>0.2059</v>
       </c>
       <c r="B17" s="0">
-        <v>110.3263</v>
+        <v>120.4801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1343</v>
+        <v>0.1571</v>
       </c>
       <c r="B18" s="0">
-        <v>113.0002</v>
+        <v>115.8033</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1644</v>
+        <v>0.1058</v>
       </c>
       <c r="B19" s="0">
-        <v>116.3418</v>
+        <v>109.8329</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1844</v>
+        <v>0.0517</v>
       </c>
       <c r="B20" s="0">
-        <v>118.3461</v>
+        <v>101.9216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2144</v>
+        <v>0.0189</v>
       </c>
       <c r="B21" s="0">
-        <v>121.2002</v>
+        <v>92.8707</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2344</v>
+        <v>0.0044</v>
       </c>
       <c r="B22" s="0">
-        <v>123.1334</v>
+        <v>82.034</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2645</v>
+        <v>0.0016</v>
       </c>
       <c r="B23" s="0">
-        <v>125.754</v>
+        <v>75.4006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2845</v>
+        <v>0.0006</v>
       </c>
       <c r="B24" s="0">
-        <v>127.5112</v>
+        <v>65.2067</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3145</v>
+        <v>-0</v>
       </c>
       <c r="B25" s="0">
-        <v>130.2164</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3346</v>
-      </c>
-      <c r="B26" s="0">
-        <v>131.9262</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.3646</v>
-      </c>
-      <c r="B27" s="0">
-        <v>134.5873</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.3846</v>
-      </c>
-      <c r="B28" s="0">
-        <v>136.4156</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.4126</v>
-      </c>
-      <c r="B29" s="0">
-        <v>139.091</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.4347</v>
-      </c>
-      <c r="B30" s="0">
-        <v>140.4752</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.4567</v>
-      </c>
-      <c r="B31" s="0">
-        <v>142.2351</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.4787</v>
-      </c>
-      <c r="B32" s="0">
-        <v>144.0255</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.5007</v>
-      </c>
-      <c r="B33" s="0">
-        <v>145.7854</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.5228</v>
-      </c>
-      <c r="B34" s="0">
-        <v>147.2711</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5448</v>
-      </c>
-      <c r="B35" s="0">
-        <v>148.9397</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.5668</v>
-      </c>
-      <c r="B36" s="0">
-        <v>150.5168</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.5888</v>
-      </c>
-      <c r="B37" s="0">
-        <v>152.1549</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6109</v>
-      </c>
-      <c r="B38" s="0">
-        <v>153.8538</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6329</v>
-      </c>
-      <c r="B39" s="0">
-        <v>155.6747</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6549</v>
-      </c>
-      <c r="B40" s="0">
-        <v>157.4346</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.6769</v>
-      </c>
-      <c r="B41" s="0">
-        <v>159.1336</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.699</v>
-      </c>
-      <c r="B42" s="0">
-        <v>160.8936</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.721</v>
-      </c>
-      <c r="B43" s="0">
-        <v>162.6535</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.743</v>
-      </c>
-      <c r="B44" s="0">
-        <v>164.5657</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.765</v>
-      </c>
-      <c r="B45" s="0">
-        <v>166.021</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7871</v>
-      </c>
-      <c r="B46" s="0">
-        <v>167.3544</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8091</v>
-      </c>
-      <c r="B47" s="0">
-        <v>169.3276</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8311</v>
-      </c>
-      <c r="B48" s="0">
-        <v>171.8492</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8531</v>
-      </c>
-      <c r="B49" s="0">
-        <v>174.4013</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8751</v>
-      </c>
-      <c r="B50" s="0">
-        <v>177.5931</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.8972</v>
-      </c>
-      <c r="B51" s="0">
-        <v>181.0896</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9192</v>
-      </c>
-      <c r="B52" s="0">
-        <v>186.0485</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9362</v>
-      </c>
-      <c r="B53" s="0">
-        <v>190.547</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>0.8056</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 121 CO2 Adsorption on Biomass-Derived/Data121_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 121 CO2 Adsorption on Biomass-Derived/Data121_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 8 NDC-500  0-1-0-200 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 8 NDC-600  0-1-0-200 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 8 NDC-700  0-1-0-200 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 8 NDC-500  0&amp;1&amp;0&amp;200 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 8 NDC-600  0&amp;1&amp;0&amp;200 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 8 NDC-700  0&amp;1&amp;0&amp;200 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 NDC-500  0-1-0-200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 NDC-500  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 NDC-500  0-1-0-200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 NDC-500  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 NDC-600  0-1-0-200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 NDC-600  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 NDC-600  0-1-0-200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 NDC-600  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 8 NDC-700  0-1-0-200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 8 NDC-700  0&amp;1&amp;0&amp;200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 8 NDC-700  0-1-0-200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 8 NDC-700  0&amp;1&amp;0&amp;200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
